--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="19">
   <si>
     <t>发票号码:</t>
   </si>
@@ -22,15 +22,12 @@
     <t>今天日期</t>
   </si>
   <si>
-    <t>11/13/2014</t>
+    <t>11/28/2014</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>Teach</t>
-  </si>
-  <si>
     <t>UNK-000-000</t>
   </si>
   <si>
@@ -49,7 +46,7 @@
     <t>工资</t>
   </si>
   <si>
-    <t>10:45 PM</t>
+    <t>08:30 PM</t>
   </si>
   <si>
     <t>0:00:00</t>
@@ -61,7 +58,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>唐人街学校:</t>
+    <t>法拉盛学校:</t>
   </si>
   <si>
     <t>现金工资:</t>
@@ -484,29 +481,27 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -514,152 +509,152 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
